--- a/目前版本/社團開會.xlsx
+++ b/目前版本/社團開會.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\final project\PBC-Final\目前版本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\黃萱\Desktop\商管程\期末專案\目前版本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA80D6-3843-4D15-9E15-413418B3B740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC6254-60A2-4C21-85B4-D9DE67BA1F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="396" windowWidth="11796" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="社團開會" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="34">
   <si>
     <t>2021/1/04</t>
   </si>
@@ -83,6 +83,70 @@
   </si>
   <si>
     <t>呂侑真,陳思羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,12 +497,15 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +531,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -487,7 +557,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -510,7 +583,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -533,7 +609,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -556,7 +635,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -579,7 +661,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -605,7 +690,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -631,7 +719,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -654,7 +745,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -677,7 +771,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -697,7 +794,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -717,7 +817,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -740,7 +843,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -763,7 +869,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -786,7 +895,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -810,6 +922,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
